--- a/data/georgia_census/guria/choxatauri/age_dependency.xlsx
+++ b/data/georgia_census/guria/choxatauri/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBCAAFA-9C86-4C23-B930-339ABF3C25D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0234D976-6967-4C5D-BBCC-7D49B7C49C67}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5CF60C-4CD3-4027-831D-6C5740B8D5DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63BCF3B1-695C-4C25-AA82-859A002D9E22}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A5D0A9D-37D0-4835-9E89-72C372AD175E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57D4ED8A-151B-4A37-8D6A-4326ECBB24B0}"/>
 </file>